--- a/djonline/test.xlsx
+++ b/djonline/test.xlsx
@@ -89,46 +89,46 @@
     <t>打回信息</t>
   </si>
   <si>
-    <t>songke</t>
-  </si>
-  <si>
-    <t>tommy</t>
-  </si>
-  <si>
-    <t>18819568975</t>
-  </si>
-  <si>
-    <t>remark is ok</t>
-  </si>
-  <si>
-    <t>testaddress</t>
-  </si>
-  <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>shenzhen-xi'an</t>
-  </si>
-  <si>
-    <t>guangzhou</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>18815288795</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>A1258</t>
+  </si>
+  <si>
+    <t>shenzhen</t>
+  </si>
+  <si>
+    <t>xi'an</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>beijing</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,67 +563,209 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s"/>
+      <c r="G2" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>43484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>126.21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0.7069444444444445</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q2" s="3" t="n">
-        <v>43484.29097222222</v>
+        <v>42006.20486111111</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
       </c>
       <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="H3" t="n">
+        <v>256</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>42006.20486111111</v>
+      </c>
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
         <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="H4" t="n">
+        <v>256</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>42006.20486111111</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/djonline/test.xlsx
+++ b/djonline/test.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,78 +696,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" s="1" t="n">
-        <v>43525</v>
-      </c>
-      <c r="H4" t="n">
-        <v>256</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.4131944444444444</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>42006.20486111111</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/djonline/test.xlsx
+++ b/djonline/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>单据编号</t>
   </si>
@@ -89,46 +89,28 @@
     <t>打回信息</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>tom</t>
-  </si>
-  <si>
-    <t>18815288795</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>A1258</t>
-  </si>
-  <si>
-    <t>shenzhen</t>
-  </si>
-  <si>
-    <t>xi'an</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>beijing</t>
-  </si>
-  <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -470,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,137 +545,67 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s"/>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="1" t="n">
-        <v>43525</v>
+        <v>43527</v>
       </c>
       <c r="H2" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0.4298611111111111</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0.4298611111111111</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>43527.09513888889</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.4131944444444444</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>42006.20486111111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" s="1" t="n">
-        <v>43525</v>
-      </c>
-      <c r="H3" t="n">
-        <v>256</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0.4131944444444444</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>42006.20486111111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
